--- a/src/test/resources/Testdataforautomation.xlsx
+++ b/src/test/resources/Testdataforautomation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10560" windowHeight="6615"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="16452" windowHeight="6048"/>
   </bookViews>
   <sheets>
     <sheet name="Home_Module" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Crendentials" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G20"/>
+  <oleSize ref="A1:I19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
   <si>
     <t xml:space="preserve">Test case Name </t>
   </si>
@@ -264,6 +264,159 @@
   </si>
   <si>
     <t xml:space="preserve">Y yar u are saving no </t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage01.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage02.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage03.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage04.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage05.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage06.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage07.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage08.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage09.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage10.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage11.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage12.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage13.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage14.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage15.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage16.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage17.jpg</t>
+  </si>
+  <si>
+    <t>Test Message 01</t>
+  </si>
+  <si>
+    <t>Test Message 02</t>
+  </si>
+  <si>
+    <t>Test Message 03</t>
+  </si>
+  <si>
+    <t>Test Message 04</t>
+  </si>
+  <si>
+    <t>Test Message 05</t>
+  </si>
+  <si>
+    <t>Test Message 06</t>
+  </si>
+  <si>
+    <t>Test Message 07</t>
+  </si>
+  <si>
+    <t>Test Message 08</t>
+  </si>
+  <si>
+    <t>Test Message 09</t>
+  </si>
+  <si>
+    <t>Test Message 10</t>
+  </si>
+  <si>
+    <t>Test Message 11</t>
+  </si>
+  <si>
+    <t>Test Message 12</t>
+  </si>
+  <si>
+    <t>Test Message 13</t>
+  </si>
+  <si>
+    <t>Test Message 14</t>
+  </si>
+  <si>
+    <t>Test Message 15</t>
+  </si>
+  <si>
+    <t>Test Message 16</t>
+  </si>
+  <si>
+    <t>Test Message 17</t>
+  </si>
+  <si>
+    <t>Test Comment 01</t>
+  </si>
+  <si>
+    <t>Test Comment 02</t>
+  </si>
+  <si>
+    <t>Test Comment 03</t>
+  </si>
+  <si>
+    <t>Test Comment 04</t>
+  </si>
+  <si>
+    <t>Test Comment 05</t>
+  </si>
+  <si>
+    <t>Test Comment 06</t>
+  </si>
+  <si>
+    <t>Test Comment 07</t>
+  </si>
+  <si>
+    <t>Test Comment 08</t>
+  </si>
+  <si>
+    <t>Test Comment 09</t>
+  </si>
+  <si>
+    <t>Test Comment 10</t>
+  </si>
+  <si>
+    <t>Test Comment 11</t>
+  </si>
+  <si>
+    <t>Test Comment 12</t>
+  </si>
+  <si>
+    <t>Test Comment 13</t>
+  </si>
+  <si>
+    <t>Test Comment 14</t>
+  </si>
+  <si>
+    <t>Test Comment 15</t>
+  </si>
+  <si>
+    <t>Test Comment 16</t>
+  </si>
+  <si>
+    <t>Test Comment 17</t>
   </si>
 </sst>
 </file>
@@ -710,20 +863,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A11:XFD14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -734,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -745,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -756,7 +909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -767,7 +920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -778,7 +931,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -789,7 +942,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -800,7 +953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -811,7 +964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -822,7 +975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -833,7 +986,194 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -847,20 +1187,20 @@
       <selection activeCell="J2" sqref="J2:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="1" max="1" width="26.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
     <col min="6" max="6" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1146,16 +1486,16 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
+    <col min="6" max="6" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1325,9 +1665,9 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/test/resources/Testdataforautomation.xlsx
+++ b/src/test/resources/Testdataforautomation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="16452" windowHeight="6048"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="18552" windowHeight="5376"/>
   </bookViews>
   <sheets>
     <sheet name="Home_Module" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Crendentials" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I19"/>
 </workbook>
 </file>
 
@@ -266,157 +265,157 @@
     <t xml:space="preserve">Y yar u are saving no </t>
   </si>
   <si>
+    <t>./src/test/resources/testImages/TestImage02.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage03.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage04.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage05.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage06.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage07.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage08.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage09.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage10.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage11.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage12.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage13.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage14.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage15.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage16.jpg</t>
+  </si>
+  <si>
+    <t>./src/test/resources/testImages/TestImage17.jpg</t>
+  </si>
+  <si>
+    <t>Test Message 01</t>
+  </si>
+  <si>
+    <t>Test Message 02</t>
+  </si>
+  <si>
+    <t>Test Message 03</t>
+  </si>
+  <si>
+    <t>Test Message 04</t>
+  </si>
+  <si>
+    <t>Test Message 05</t>
+  </si>
+  <si>
+    <t>Test Message 06</t>
+  </si>
+  <si>
+    <t>Test Message 07</t>
+  </si>
+  <si>
+    <t>Test Message 08</t>
+  </si>
+  <si>
+    <t>Test Message 09</t>
+  </si>
+  <si>
+    <t>Test Message 10</t>
+  </si>
+  <si>
+    <t>Test Message 11</t>
+  </si>
+  <si>
+    <t>Test Message 12</t>
+  </si>
+  <si>
+    <t>Test Message 13</t>
+  </si>
+  <si>
+    <t>Test Message 14</t>
+  </si>
+  <si>
+    <t>Test Message 15</t>
+  </si>
+  <si>
+    <t>Test Message 16</t>
+  </si>
+  <si>
+    <t>Test Message 17</t>
+  </si>
+  <si>
+    <t>Test Comment 01</t>
+  </si>
+  <si>
+    <t>Test Comment 02</t>
+  </si>
+  <si>
+    <t>Test Comment 03</t>
+  </si>
+  <si>
+    <t>Test Comment 04</t>
+  </si>
+  <si>
+    <t>Test Comment 05</t>
+  </si>
+  <si>
+    <t>Test Comment 06</t>
+  </si>
+  <si>
+    <t>Test Comment 07</t>
+  </si>
+  <si>
+    <t>Test Comment 08</t>
+  </si>
+  <si>
+    <t>Test Comment 09</t>
+  </si>
+  <si>
+    <t>Test Comment 10</t>
+  </si>
+  <si>
+    <t>Test Comment 11</t>
+  </si>
+  <si>
+    <t>Test Comment 12</t>
+  </si>
+  <si>
+    <t>Test Comment 13</t>
+  </si>
+  <si>
+    <t>Test Comment 14</t>
+  </si>
+  <si>
+    <t>Test Comment 15</t>
+  </si>
+  <si>
+    <t>Test Comment 16</t>
+  </si>
+  <si>
+    <t>Test Comment 17</t>
+  </si>
+  <si>
     <t>./src/test/resources/testImages/TestImage01.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage02.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage03.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage04.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage05.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage06.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage07.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage08.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage09.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage10.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage11.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage12.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage13.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage14.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage15.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage16.jpg</t>
-  </si>
-  <si>
-    <t>./src/test/resources/testImages/TestImage17.jpg</t>
-  </si>
-  <si>
-    <t>Test Message 01</t>
-  </si>
-  <si>
-    <t>Test Message 02</t>
-  </si>
-  <si>
-    <t>Test Message 03</t>
-  </si>
-  <si>
-    <t>Test Message 04</t>
-  </si>
-  <si>
-    <t>Test Message 05</t>
-  </si>
-  <si>
-    <t>Test Message 06</t>
-  </si>
-  <si>
-    <t>Test Message 07</t>
-  </si>
-  <si>
-    <t>Test Message 08</t>
-  </si>
-  <si>
-    <t>Test Message 09</t>
-  </si>
-  <si>
-    <t>Test Message 10</t>
-  </si>
-  <si>
-    <t>Test Message 11</t>
-  </si>
-  <si>
-    <t>Test Message 12</t>
-  </si>
-  <si>
-    <t>Test Message 13</t>
-  </si>
-  <si>
-    <t>Test Message 14</t>
-  </si>
-  <si>
-    <t>Test Message 15</t>
-  </si>
-  <si>
-    <t>Test Message 16</t>
-  </si>
-  <si>
-    <t>Test Message 17</t>
-  </si>
-  <si>
-    <t>Test Comment 01</t>
-  </si>
-  <si>
-    <t>Test Comment 02</t>
-  </si>
-  <si>
-    <t>Test Comment 03</t>
-  </si>
-  <si>
-    <t>Test Comment 04</t>
-  </si>
-  <si>
-    <t>Test Comment 05</t>
-  </si>
-  <si>
-    <t>Test Comment 06</t>
-  </si>
-  <si>
-    <t>Test Comment 07</t>
-  </si>
-  <si>
-    <t>Test Comment 08</t>
-  </si>
-  <si>
-    <t>Test Comment 09</t>
-  </si>
-  <si>
-    <t>Test Comment 10</t>
-  </si>
-  <si>
-    <t>Test Comment 11</t>
-  </si>
-  <si>
-    <t>Test Comment 12</t>
-  </si>
-  <si>
-    <t>Test Comment 13</t>
-  </si>
-  <si>
-    <t>Test Comment 14</t>
-  </si>
-  <si>
-    <t>Test Comment 15</t>
-  </si>
-  <si>
-    <t>Test Comment 16</t>
-  </si>
-  <si>
-    <t>Test Comment 17</t>
   </si>
 </sst>
 </file>
@@ -863,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,7 +875,7 @@
     <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -887,7 +886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -898,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -909,7 +908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -920,7 +919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -931,7 +930,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -942,7 +941,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -953,7 +952,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -964,7 +963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -975,7 +974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -986,194 +985,193 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>99</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>100</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>101</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>102</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>103</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>87</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>105</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>88</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>90</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>108</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>91</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>109</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>92</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>110</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>111</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>94</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>112</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>95</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>113</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>96</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>114</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1203,7 +1201,7 @@
     <col min="12" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1218,7 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -1251,7 +1249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>43</v>
       </c>
@@ -1286,7 +1284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1321,7 +1319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1356,7 +1354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -1391,7 +1389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -1480,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -1498,7 +1496,7 @@
     <col min="8" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1509,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -1534,7 +1532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>51</v>
       </c>
@@ -1557,7 +1555,7 @@
         <v>8660920980</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1580,7 +1578,7 @@
         <v>8899708976</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -1603,7 +1601,7 @@
         <v>9988776655</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -1626,7 +1624,7 @@
         <v>3452145698</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
